--- a/Roster.xlsx
+++ b/Roster.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jedim\code\savvycoders\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6F3E1-250E-4020-A036-11CCEE1C079F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB75A3F-E758-4522-99A7-0FB22B92CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D2005A46-31DE-4C78-A364-4A08055311ED}"/>
+    <workbookView xWindow="4020" yWindow="2610" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{D2005A46-31DE-4C78-A364-4A08055311ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Roster" sheetId="1" r:id="rId1"/>
+    <sheet name="Credit Card Debt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Student Name</t>
   </si>
@@ -107,14 +108,53 @@
     <t>COUNT</t>
   </si>
   <si>
-    <t>COUNT()</t>
+    <t>Credit Card Debt</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Interest Paid</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Monthly Payment</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Citi Card</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Wal-Mart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +170,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -215,6 +269,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,6 +294,3182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card Debt'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D0F0-4762-AEF0-F84D1657793F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1081399087"/>
+        <c:axId val="1081396687"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Balance</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Discover</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Capital One</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Citi Card</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Target</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Wal-Mart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$B$4:$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>450</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>975</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>780</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D0F0-4762-AEF0-F84D1657793F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Discover</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Capital One</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Citi Card</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Target</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Wal-Mart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$C$4:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D0F0-4762-AEF0-F84D1657793F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Months</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Discover</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Capital One</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Citi Card</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Target</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Wal-Mart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$D$4:$D$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D0F0-4762-AEF0-F84D1657793F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$E$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Paid</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Discover</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Capital One</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Citi Card</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Target</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Wal-Mart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$E$4:$E$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>"$"#,##0.00</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>420</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>263.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>195</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-D0F0-4762-AEF0-F84D1657793F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$F$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Loan Amount</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent5">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent5">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Discover</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Capital One</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Citi Card</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Target</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Wal-Mart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$F$4:$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>"$"#,##0.00</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2420</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>562.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1238.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1725</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>975</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-D0F0-4762-AEF0-F84D1657793F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1081399087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081396687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1081396687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1081399087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Portion of Balance Paid Monthly</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card Debt'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CA8-4177-A307-BEAC9C74C0C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card Debt'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2CA8-4177-A307-BEAC9C74C0C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1188124399"/>
+        <c:axId val="1188111919"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Discover</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Capital One</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Citi Card</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Target</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Wal-Mart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$C$4:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2CA8-4177-A307-BEAC9C74C0C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Months</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Discover</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Capital One</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Citi Card</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Target</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Wal-Mart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$D$4:$D$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-2CA8-4177-A307-BEAC9C74C0C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$E$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Paid</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Discover</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Capital One</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Citi Card</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Target</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Wal-Mart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$E$4:$E$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>"$"#,##0.00</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>420</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>112.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>263.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>195</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2CA8-4177-A307-BEAC9C74C0C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$F$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Loan Amount</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent5">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent5">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Discover</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Capital One</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Citi Card</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Target</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Wal-Mart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Credit Card Debt'!$F$4:$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>"$"#,##0.00</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2420</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>562.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1238.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1725</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>975</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2CA8-4177-A307-BEAC9C74C0C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1188124399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1188111919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1188111919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1188124399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCC3741-495A-75FC-EB87-79C87827643D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96449EC6-147A-1E72-1238-DE29BB00513D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,8 +3791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5B8E94-A96F-4407-94CF-454787380E47}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,36 +3980,267 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
+      <c r="C16">
+        <f>MIN(C4:C14)</f>
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <f>MIN(D4:D14)</f>
+        <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="C17">
+        <f>MAX(C4:C14)</f>
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f>MAX(D4:D14)</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="C18">
+        <f>AVERAGE(C4:C14)</f>
+        <v>12.454545454545455</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(D4:D14)</f>
+        <v>83.545454545454547</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="C19">
+        <f>MODE(C4:C14)</f>
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <f>MODE(D4:D14)</f>
+        <v>85</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
+      <c r="C20">
+        <f>MEDIAN(C4:C14)</f>
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <f>MEDIAN(D4:D14)</f>
+        <v>85</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
+      </c>
+      <c r="B21">
+        <f>COUNTA(B4:B14)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6F50D3-8B5D-465D-919B-E7078B0211AA}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14">
+        <f>SUM(B4*C4)</f>
+        <v>420</v>
+      </c>
+      <c r="F4" s="14">
+        <f>SUM(B4,E4)</f>
+        <v>2420</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUM(F4/D4)</f>
+        <v>806.66666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4">
+        <v>450</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E8" si="0">SUM(B5*C5)</f>
+        <v>112.5</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" ref="F5:F8" si="1">SUM(B5,E5)</f>
+        <v>562.5</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" ref="G5:G8" si="2">SUM(F5/D5)</f>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4">
+        <v>975</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>263.25</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>1238.25</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="2"/>
+        <v>412.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>1725</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4">
+        <v>780</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>